--- a/data/POLITICSGOVERNMENT.xlsx
+++ b/data/POLITICSGOVERNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED43A5A-A96F-4C5A-A594-681F346B7B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFBDC24-786F-460B-B20C-C7DA77AD752E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1517E97D-A7D2-474C-B7A7-409209493BC8}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Từ vựng / Cụm từ (English)</t>
   </si>
   <si>
-    <t>Nghĩa / Giải thích (Vietnamese/English)</t>
-  </si>
-  <si>
     <t>controversial issue</t>
   </si>
   <si>
@@ -99,14 +96,281 @@
     <t>chế độ quân chủ lập hiến</t>
   </si>
   <si>
-    <t>Examples</t>
+    <t>Nghĩa (Vietnamese)</t>
+  </si>
+  <si>
+    <t>Examples (Ví dụ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gun control is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>controversial issue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>government</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> announced new tax laws.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>constitution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> protects the rights of citizens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He is very interested in international </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>politics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>democracy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, everyone has a vote.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Don't forget to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the next election.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Who won the presidential </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>election</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The candidate launched his election </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>campaign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Saudi Arabia is an absolute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>monarchy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People have no freedom under a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dictatorship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The United Kingdom is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>constitutional monarchy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,23 +379,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,17 +409,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -169,16 +427,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,125 +751,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DCB41E-33D1-41DD-8F64-63376370AB5C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
